--- a/excel_templates/手机表.xlsx
+++ b/excel_templates/手机表.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -628,13 +628,37 @@
           <t>Android测试机</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13800138002.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:39</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>演示 - 用于产品演示</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>否</t>
@@ -1140,7 +1164,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>借出</t>
+          <t>在库</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,41 +1172,17 @@
           <t>测试过期未还功能 - 超时5天</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>lan</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>13800138001.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2026-01-25 11:35</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>外场测试</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>兼容性测试</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>用户自助</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>否</t>

--- a/excel_templates/手机表.xlsx
+++ b/excel_templates/手机表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:X221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,36 @@
           <t>上一个借用人</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>寄出时间</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>寄出备注</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>寄出人</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>寄出前借用人</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>寄出前借用时间</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>寄出前预计归还</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,7 +614,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-29 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -596,6 +626,12 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -656,7 +692,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-16 00:00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,6 +704,12 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,7 +774,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11 19:21:28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -744,6 +786,12 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -768,7 +816,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>丢失</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -778,27 +826,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>lan</t>
+          <t>test</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13800138001.0</t>
+          <t>13986903203.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-22 09:55</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>会议室</t>
-        </is>
-      </c>
+          <t>2026-02-10 11:19</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>演示使用</t>
+          <t>测试 - 用于功能测试</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -808,7 +852,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-11 14:01:08</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -816,18 +860,20 @@
           <t>否</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2026-01-30 09:55</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>lan</t>
-        </is>
-      </c>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +930,12 @@
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -932,6 +984,12 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-29 00:00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1016,6 +1074,12 @@
           <t>lan</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-11 00:00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1092,6 +1156,12 @@
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1140,6 +1210,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1164,7 +1240,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1175,13 +1251,17 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>外场测试</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
@@ -1192,6 +1272,12 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1212,7 +1298,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1240,6 +1326,12 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1259,12 +1351,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>魏力</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1284,6 +1376,12 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1303,12 +1401,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>王通</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1328,6 +1426,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1347,22 +1451,46 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>13986903203.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:41</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:41:52</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>否</t>
@@ -1372,6 +1500,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1391,12 +1525,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1416,6 +1550,12 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1435,12 +1575,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>秦书婷</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1460,6 +1600,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1479,12 +1625,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1504,6 +1650,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1523,12 +1675,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1548,6 +1700,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1567,22 +1725,46 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>甘玲玲</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2026-02-10 16:25</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2026-02-11 16:25:16</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>否</t>
@@ -1592,6 +1774,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1616,15 +1804,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>设备库</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
@@ -1636,6 +1832,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1660,7 +1862,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1680,6 +1882,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1704,7 +1912,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1724,6 +1932,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1748,7 +1962,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1768,6 +1982,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1792,7 +2012,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1812,6 +2032,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1836,7 +2062,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1856,6 +2082,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1880,7 +2112,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1900,6 +2132,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1924,7 +2162,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1944,6 +2182,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1968,7 +2212,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1988,6 +2232,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2012,7 +2262,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2032,6 +2282,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2056,7 +2312,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2076,6 +2332,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2100,7 +2362,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2120,6 +2382,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2144,7 +2412,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2164,6 +2432,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2188,7 +2462,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2208,6 +2482,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2232,7 +2512,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2252,6 +2532,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2276,7 +2562,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2296,6 +2582,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2320,7 +2612,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2340,6 +2632,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2364,15 +2662,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>设备库</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>正常归还 - 设备完好，无异常</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2384,6 +2690,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2408,7 +2720,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2428,6 +2740,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2452,7 +2770,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2472,6 +2790,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2496,7 +2820,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2516,6 +2840,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2540,7 +2870,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2560,6 +2890,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2584,7 +2920,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2604,6 +2940,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2628,7 +2970,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2648,31 +2990,37 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TEG-210</t>
+          <t>TEG-209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>测试卡17320507707</t>
+          <t>卡比特测试机 红米 note9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>秦书婷</t>
+          <t>姚中政</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2692,16 +3040,22 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TEG-209</t>
+          <t>TEG-208</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>卡比特测试机 红米 note9</t>
+          <t>云片松测试机 苹果xr imei：358807099930444</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2711,12 +3065,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>姚中政</t>
+          <t>谢波</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2736,31 +3090,33 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TEG-208</t>
+          <t>TEG-207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>云片松测试机 苹果xr imei：358807099930444</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>苹果</t>
-        </is>
-      </c>
+          <t>云片松测试机荣耀80 绑定手机卡：155 2737 8846</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>谢波</t>
+          <t>李唐亮</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2780,27 +3136,37 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TEG-207</t>
+          <t>TEG-206</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>云片松测试机荣耀80 绑定手机卡：155 2737 8846</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>云片松测试机 红米Note9-2 imei:866120053487962</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>云片松</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>李唐亮</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2820,16 +3186,22 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TEG-206</t>
+          <t>TEG-204</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>云片松测试机 红米Note9-2 imei:866120053487962</t>
+          <t>小米12 pro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2839,12 +3211,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>李志瑶</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2864,31 +3236,33 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TEG-205</t>
+          <t>TEG-203</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>联通测试卡：18696137226</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>云片松</t>
-        </is>
-      </c>
+          <t>华为P50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胡利婷</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2908,31 +3282,37 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEG-204</t>
+          <t>TEG-202</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>小米12 pro</t>
+          <t>小米 mix4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>李志瑶</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2952,27 +3332,37 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TEG-203</t>
+          <t>TEG-201</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>华为P50</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Carbit-公司内部百度云盘账号</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>张佳灵</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2992,16 +3382,22 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TEG-202</t>
+          <t>TEG-200</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>小米 mix4</t>
+          <t>华为mate 40</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3011,12 +3407,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>杨慧</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3036,41 +3432,67 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TEG-201</t>
+          <t>TEG-199</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Carbit-公司内部百度云盘账号</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>华为</t>
-        </is>
-      </c>
+          <t>iPhone 14 Pro</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>张佳灵</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2026-02-10 19:49</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2026-02-11 19:49:14</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>否</t>
@@ -3080,31 +3502,37 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TEG-200</t>
+          <t>TEG-198</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>华为mate 40</t>
+          <t>华为mate 50</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>杨慧</t>
+          <t>程捷</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3124,27 +3552,37 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TEG-199</t>
+          <t>TEG-195</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>iPhone 14 Pro</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>红米K50 至尊版（RedmiK50）</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>程捷</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3164,23 +3602,25 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TEG-198</t>
+          <t>TEG-194</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>华为mate 50</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华为</t>
-        </is>
-      </c>
+          <t>一加 Ace Pro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>程捷</t>
@@ -3188,7 +3628,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3208,31 +3648,37 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TEG-197</t>
+          <t>TEG-192</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>电信测试卡18071739489</t>
+          <t>小米12s</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>谢文祥</t>
+          <t>程捷</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3252,31 +3698,37 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TEG-195</t>
+          <t>TEG-191</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>红米K50 至尊版（RedmiK50）</t>
+          <t>云片松测试手机 realme Neo3 imei：867347065154012</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>一加</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>张莉娟</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3296,27 +3748,37 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TEG-194</t>
+          <t>TEG-190</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>一加 Ace Pro</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>云片松测试机 苹果XS Max 绑定手机号：18120219539</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>小米</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>李唐亮</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3336,31 +3798,37 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TEG-192</t>
+          <t>TEG-189</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>小米12s</t>
+          <t>云片松测试机 苹果SE2（黄总长期借用）</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3380,31 +3848,37 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEG-191</t>
+          <t>TEG-188</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>云片松测试手机 realme Neo3 imei：867347065154012</t>
+          <t>云片松测试机 荣耀Play6T Pro imei：862250052905245</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>一加</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>张莉娟</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3424,31 +3898,37 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TEG-190</t>
+          <t>TEG-187</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>云片松测试机 苹果XS Max 绑定手机号：18120219539</t>
+          <t>云片松测试机 红米Note9-1 imei:866120053436241</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>李唐亮</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3468,16 +3948,22 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TEG-189</t>
+          <t>TEG-186</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>云片松测试机 苹果SE2（黄总长期借用）</t>
+          <t>云片松测试机 vivo Y77 绑定手机号：18120219008 IMEI1：865591062423415</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3487,12 +3973,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>邹大金</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3512,16 +3998,22 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEG-188</t>
+          <t>TEG-185</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>云片松测试机 荣耀Play6T Pro imei：862250052905245</t>
+          <t>云片松测试机 红米Note 11T Pro IMEI:862742068372618</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3536,7 +4028,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3556,16 +4048,22 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TEG-187</t>
+          <t>TEG-184</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>云片松测试机 红米Note9-1 imei:866120053436241</t>
+          <t>云片松测试机 华为Mate30 Pro imei：869348043924631 绑定手机号： 181202195829(主1)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3575,12 +4073,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>左腾达</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3600,16 +4098,22 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TEG-186</t>
+          <t>TEG-183</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>云片松测试机 vivo Y77 绑定手机号：18120219008 IMEI1：865591062423415</t>
+          <t>云片松测试机 OPPO K10 绑定手机号：18120219053</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3619,12 +4123,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>邹大金</t>
+          <t>孙雪勇</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3644,16 +4148,22 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TEG-185</t>
+          <t>TEG-182</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>云片松测试机 红米Note 11T Pro IMEI:862742068372618</t>
+          <t>红米K50（原装）</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3663,12 +4173,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>谌胜</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3688,16 +4198,22 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TEG-184</t>
+          <t>TEG-181</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>云片松测试机 华为Mate30 Pro imei：869348043924631 绑定手机号： 181202195829(主1)</t>
+          <t>华为P40</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3707,12 +4223,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>左腾达</t>
+          <t>鲍永康</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3732,31 +4248,37 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TEG-183</t>
+          <t>TEG-180</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>云片松测试机 OPPO K10 绑定手机号：18120219053</t>
+          <t>oppo Reno 7 5G</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>孙雪勇</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -3776,31 +4298,37 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TEG-182</t>
+          <t>TEG-179</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>红米K50（原装）</t>
+          <t>红米K40</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>谌胜</t>
+          <t>沈晋元</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3820,31 +4348,37 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TEG-181</t>
+          <t>TEG-178</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>华为P40</t>
+          <t>一加 9RT 5G</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>鲍永康</t>
+          <t>谢波</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -3864,16 +4398,22 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TEG-180</t>
+          <t>TEG-176</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>oppo Reno 7 5G</t>
+          <t>云片松测试手机vivo X70 imei:867889055250334</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3883,12 +4423,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>夏伟</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -3908,31 +4448,37 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TEG-179</t>
+          <t>TEG-175</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>红米K40</t>
+          <t>云片松测试机HONOR 60 (荣耀60) imei：869698060752939</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>一加</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>沈晋元</t>
+          <t>杨杰</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3952,31 +4498,37 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TEG-178</t>
+          <t>TEG-174</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>一加 9RT 5G</t>
+          <t>云片松测试机 红米K40 Pro 安卓：13 绑定手机号： 18120219189 主2 IMEI：863984051603984</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>谢波</t>
+          <t>郝怡</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -3996,31 +4548,37 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TEG-176</t>
+          <t>TEG-173</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>云片松测试手机vivo X70 imei:867889055250334</t>
+          <t>云片松测试机-OPPO Reno7 绑定手机155 2737 8847</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>夏伟</t>
+          <t>左腾达</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4040,31 +4598,37 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TEG-175</t>
+          <t>TEG-172</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>云片松测试机HONOR 60 (荣耀60) imei：869698060752939</t>
+          <t>云片松2轮电动车路测专用</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>一加</t>
+          <t>云片松</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>杨杰</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4084,16 +4648,22 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TEG-174</t>
+          <t>TEG-171</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>云片松测试机 红米K40 Pro 安卓：13 绑定手机号： 18120219189 主2 IMEI：863984051603984</t>
+          <t>华为 P30</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4103,12 +4673,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>郝怡</t>
+          <t>甘玲玲</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4128,16 +4698,22 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TEG-173</t>
+          <t>TEG-170</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>云片松测试机-OPPO Reno7 绑定手机155 2737 8847</t>
+          <t>VIVO S9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4147,12 +4723,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>左腾达</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4172,31 +4748,37 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TEG-172</t>
+          <t>TEG-169</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>云片松2轮电动车路测专用</t>
+          <t>iPhone 11 PRO Max</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>王维琴</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4216,31 +4798,37 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TEG-171</t>
+          <t>TEG-167</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>华为 P30</t>
+          <t>iphone SE2 imei：356502108815759</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>甘玲玲</t>
+          <t>刘源</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -4260,31 +4848,37 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TEG-170</t>
+          <t>TEG-166</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VIVO S9</t>
+          <t>小米11</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>云片松</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>孙辉</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -4304,31 +4898,37 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TEG-169</t>
+          <t>TEG-165</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>iPhone 11 PRO Max</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>杨慧</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -4348,31 +4948,37 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TEG-167</t>
+          <t>TEG-164</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>iphone SE2 imei：356502108815759</t>
+          <t>三星S21 5G 型号：SM-G991U1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>刘源</t>
+          <t>沈晋元</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -4392,16 +4998,22 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TEG-166</t>
+          <t>TEG-163</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>小米11</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4411,12 +5023,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>孙辉</t>
+          <t>程捷</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -4436,31 +5048,37 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TEG-165</t>
+          <t>TEG-162</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>iPhone 13</t>
+          <t>Galaxy S20 FE 5G 美版谷歌原生 型号：SM-G781U</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>杨慧</t>
+          <t>刘源</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -4480,31 +5098,37 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TEG-164</t>
+          <t>TEG-161</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>三星S21 5G 型号：SM-G991U1</t>
+          <t>三星S21 5G 美版谷歌原生 型号：SM-G991U</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>沈晋元</t>
+          <t>方荆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -4524,31 +5148,37 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TEG-163</t>
+          <t>TEG-160</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iPhone 12</t>
+          <t>平板 Galaxy Tab A7 银灰支持SIM卡 型号：SM-T500</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>周健</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -4568,16 +5198,22 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TEG-162</t>
+          <t>TEG-159</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G 美版谷歌原生 型号：SM-G781U</t>
+          <t>平板 Galaxy Tab A7 银灰支持SIM卡 型号：SM-T500</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4587,12 +5223,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>刘源</t>
+          <t>胡利婷</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -4612,31 +5248,37 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TEG-161</t>
+          <t>TEG-158</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>三星S21 5G 美版谷歌原生 型号：SM-G991U</t>
+          <t>平板 Galaxy Tab A7 香槟金 不支持SIM卡 型号：SM-T500</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>方荆</t>
+          <t>王维琴</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -4656,16 +5298,22 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TEG-160</t>
+          <t>TEG-157</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>平板 Galaxy Tab A7 银灰支持SIM卡 型号：SM-T500</t>
+          <t>Coolpad COOL 20</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4675,12 +5323,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>周健</t>
+          <t>吴洪涛</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -4700,16 +5348,22 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TEG-159</t>
+          <t>TEG-156</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>平板 Galaxy Tab A7 银灰支持SIM卡 型号：SM-T500</t>
+          <t>iphone 11pro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4719,12 +5373,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>胡利婷</t>
+          <t>鲍永康</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4744,31 +5398,37 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TEG-158</t>
+          <t>TEG-155</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>平板 Galaxy Tab A7 香槟金 不支持SIM卡 型号：SM-T500</t>
+          <t>iphone XS MAX</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>酷派</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4788,31 +5448,37 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TEG-157</t>
+          <t>TEG-154</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Coolpad COOL 20</t>
+          <t>iphone XR IMEI: 357393098360769</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>吴洪涛</t>
+          <t>赵瑞雪</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4832,31 +5498,37 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TEG-156</t>
+          <t>TEG-153</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>iphone 11pro</t>
+          <t>iphone 12mini IMEI 353024113554839</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>鲍永康</t>
+          <t>胡利婷</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4876,31 +5548,37 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TEG-155</t>
+          <t>TEG-152</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>iphone XS MAX</t>
+          <t>华为Mate 10 型号：ALP-AL00</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>酷派</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>沈晋元</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -4920,16 +5598,22 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TEG-154</t>
+          <t>TEG-151</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>iphone XR IMEI: 357393098360769</t>
+          <t>谷歌 pixel 5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4939,12 +5623,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>赵瑞雪</t>
+          <t>沈晋元</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4964,31 +5648,37 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TEG-153</t>
+          <t>TEG-150</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>iphone 12mini IMEI 353024113554839</t>
+          <t>iphone 12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>胡利婷</t>
+          <t>谢文祥</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -5008,31 +5698,37 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TEG-152</t>
+          <t>TEG-149</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>华为Mate 10 型号：ALP-AL00</t>
+          <t>小米9 IMEI:867436042061786</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>谷歌</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>沈晋元</t>
+          <t>姚中政</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -5052,16 +5748,22 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TEG-151</t>
+          <t>TEG-148</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>谷歌 pixel 5</t>
+          <t>华为mate 30(HUAWEI Mate 30)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5071,12 +5773,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>沈晋元</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -5096,31 +5798,37 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TEG-150</t>
+          <t>TEG-147</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>iphone 12</t>
+          <t>realme X2 IMEI：867092048374671</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>谢文祥</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -5140,31 +5848,37 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TEG-149</t>
+          <t>TEG-145</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>小米9 IMEI:867436042061786</t>
+          <t>测试部测试账号汇总</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>谷歌</t>
+          <t>realme</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>姚中政</t>
+          <t>未分配</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -5184,31 +5898,33 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TEG-148</t>
+          <t>TEG-144</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>华为mate 30(HUAWEI Mate 30)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>苹果</t>
-        </is>
-      </c>
+          <t>VIVO X30（5G） 型号：V1938CT</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>周健</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -5228,31 +5944,37 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TEG-147</t>
+          <t>TEG-143</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>realme X2 IMEI：867092048374671</t>
+          <t>华为 荣耀V30 型号：OXF-AN00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>小米</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>程捷</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -5272,16 +5994,22 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TEG-146</t>
+          <t>TEG-142</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>联通测试卡：18696137229</t>
+          <t>华为 nova6-技术支持专用 型号：WLZ-AL10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5291,12 +6019,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>张佳灵</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -5316,31 +6044,37 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TEG-145</t>
+          <t>TEG-141</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>测试部测试账号汇总</t>
+          <t>iphone XS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>realme</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>未分配</t>
+          <t>方荆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -5360,27 +6094,37 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TEG-144</t>
+          <t>TEG-140</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VIVO X30（5G） 型号：V1938CT</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>华为P20 PRO-技术支持专用</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>苹果</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>周健</t>
+          <t>张佳灵</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -5400,31 +6144,37 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TEG-143</t>
+          <t>TEG-139</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>华为 荣耀V30 型号：OXF-AN00</t>
+          <t>VIVO NEX3_销售专用</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>程捷</t>
+          <t>梁咏</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -5444,31 +6194,37 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TEG-142</t>
+          <t>TEG-138</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>华为 nova6-技术支持专用 型号：WLZ-AL10</t>
+          <t>iphone 11 IMEI 356345103597075 \356345103677059</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>张佳灵</t>
+          <t>李志瑶</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -5488,31 +6244,37 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TEG-141</t>
+          <t>TEG-137</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>iphone XS</t>
+          <t>OPPO K3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>方荆</t>
+          <t>王子恒</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -5532,31 +6294,37 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TEG-140</t>
+          <t>TEG-136</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>华为P20 PRO-技术支持专用</t>
+          <t>华为麦芒8 POT-AL00 安卓10.0.0 IMEI:868912041985026\868912042201365</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>张佳灵</t>
+          <t>邹大金</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -5576,16 +6344,22 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TEG-139</t>
+          <t>TEG-135</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>VIVO NEX3_销售专用</t>
+          <t>三星S9+ 安卓8.0 IMEI：356420094796364</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5595,12 +6369,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>梁咏</t>
+          <t>章程</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -5620,31 +6394,37 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TEG-138</t>
+          <t>TEG-134</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>iphone 11 IMEI 356345103597075 \356345103677059</t>
+          <t>红米note7 IMEI：869288047177127</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>李志瑶</t>
+          <t>孙辉</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -5664,21 +6444,27 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TEG-137</t>
+          <t>TEG-133</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>OPPO K3</t>
+          <t>iphone 8 IMEI：356702083462581</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5688,7 +6474,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -5708,31 +6494,37 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TEG-136</t>
+          <t>TEG-130</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>华为麦芒8 POT-AL00 安卓10.0.0 IMEI:868912041985026\868912042201365</t>
+          <t>Pad Nexus 7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>邹大金</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -5752,31 +6544,33 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TEG-135</t>
+          <t>TEG-129</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>三星S9+ 安卓8.0 IMEI：356420094796364</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>华为</t>
-        </is>
-      </c>
+          <t>华为 P10</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>章程</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -5796,31 +6590,37 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TEG-134</t>
+          <t>TEG-128</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>红米note7 IMEI：869288047177127</t>
+          <t>VIVO X21A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>孙辉</t>
+          <t>姚冉冉</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -5840,31 +6640,37 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TEG-133</t>
+          <t>TEG-127</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>iphone 8 IMEI：356702083462581</t>
+          <t>iPhone 6s Plus IOS13.6 技术支持专用，测试需要时，可借用</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>王子恒</t>
+          <t>张佳曼</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -5884,16 +6690,22 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TEG-130</t>
+          <t>TEG-126</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pad Nexus 7</t>
+          <t>华为nova3i</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5908,7 +6720,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -5928,19 +6740,29 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TEG-129</t>
+          <t>TEG-125</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>华为 P10</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>iPhone 8 （14.3），IMEI：356707082541178（白色）</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>贺玮玮</t>
@@ -5948,7 +6770,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -5968,31 +6790,37 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TEG-128</t>
+          <t>TEG-124</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>VIVO X21A</t>
+          <t>OPPO R15 Android8.1.0 IMEI：A0000088A35AC4</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>姚冉冉</t>
+          <t>甘玲玲</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -6012,31 +6840,37 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TEG-127</t>
+          <t>TEG-123</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus IOS13.6 技术支持专用，测试需要时，可借用</t>
+          <t>三星S9，安卓8.0，IMEI：355029090530254</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>张佳曼</t>
+          <t>范晔斌</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -6056,31 +6890,37 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TEG-126</t>
+          <t>TEG-122</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>华为nova3i</t>
+          <t>iPhone 8 plus（14.6），35298309044011 7</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>秦书婷</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -6100,31 +6940,37 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TEG-125</t>
+          <t>TEG-121</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>iPhone 8 （14.3），IMEI：356707082541178（白色）</t>
+          <t>谷歌 pixel</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>甘玲玲</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -6144,31 +6990,37 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TEG-124</t>
+          <t>TEG-120</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>OPPO R15 Android8.1.0 IMEI：A0000088A35AC4</t>
+          <t>Iphone 7P 黑色 IMEI：359180075110368</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>谷歌</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>甘玲玲</t>
+          <t>丁大敏</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -6188,31 +7040,37 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TEG-123</t>
+          <t>TEG-119</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>三星S9，安卓8.0，IMEI：355029090530254</t>
+          <t>Iphone 7 金色 IMEI:355343085716376</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>范晔斌</t>
+          <t>刘友俊</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -6232,31 +7090,37 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TEG-122</t>
+          <t>TEG-118</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>iPhone 8 plus（14.6），35298309044011 7</t>
+          <t>VIVO Y83A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>秦书婷</t>
+          <t>黄绵旭</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -6276,31 +7140,37 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TEG-121</t>
+          <t>TEG-117</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>谷歌 pixel</t>
+          <t>OPPO R9m</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>甘玲玲</t>
+          <t>王维琴</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -6320,31 +7190,37 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TEG-120</t>
+          <t>TEG-115</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Iphone 7P 黑色 IMEI：359180075110368</t>
+          <t>Iphone X</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>谷歌</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>丁大敏</t>
+          <t>刘友俊</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -6364,16 +7240,22 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TEG-119</t>
+          <t>TEG-114</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Iphone 7 金色 IMEI:355343085716376</t>
+          <t>三星S4 （I9500） 4.4.2 大师手机</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6383,12 +7265,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>刘友俊</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -6408,31 +7290,37 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TEG-118</t>
+          <t>TEG-113</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>VIVO Y83A</t>
+          <t>华为荣耀10</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>黄绵旭</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -6452,31 +7340,37 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TEG-117</t>
+          <t>TEG-112</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>OPPO R9m</t>
+          <t>华为MATE9银色 IMEI1：864677032262529</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -6496,31 +7390,37 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TEG-115</t>
+          <t>TEG-111</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Iphone X</t>
+          <t>华为荣耀9 青春版 8.0（LLD-AL00）IMEI:866321037842716</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>刘友俊</t>
+          <t>王维琴</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -6540,31 +7440,37 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TEG-114</t>
+          <t>TEG-95</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>三星S4 （I9500） 4.4.2 大师手机</t>
+          <t>Iphone 6（黑）</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>邹大金</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -6584,31 +7490,37 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TEG-113</t>
+          <t>TEG-94</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>华为荣耀10</t>
+          <t>荣耀畅玩6x 3GB 32G全网通</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>游智</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -6628,31 +7540,37 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TEG-112</t>
+          <t>TEG-93</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>华为MATE9银色 IMEI1：864677032262529</t>
+          <t>乐视MAX2 X820金色</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>荣耀</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>余奇</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -6672,31 +7590,37 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TEG-111</t>
+          <t>TEG-92</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>华为荣耀9 青春版 8.0（LLD-AL00）IMEI:866321037842716</t>
+          <t>魅族 魅蓝metal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>乐视</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>王维琴</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -6716,31 +7640,37 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TEG-95</t>
+          <t>TEG-88</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Iphone 6（黑）</t>
+          <t>OPPO r9s（玫瑰金）</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>邹大金</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -6760,31 +7690,37 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TEG-94</t>
+          <t>TEG-87</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>荣耀畅玩6x 3GB 32G全网通</t>
+          <t>华为荣耀8</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>游智</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -6804,31 +7740,37 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TEG-93</t>
+          <t>TEG-86</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>乐视MAX2 X820金色</t>
+          <t>Iphone 6 银色 IMEI:358367062785390</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>荣耀</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>余奇</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -6848,31 +7790,37 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TEG-92</t>
+          <t>TEG-85</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>魅族 魅蓝metal</t>
+          <t>魅族 魅蓝Note5</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>乐视</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>谢波</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -6892,16 +7840,22 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TEG-88</t>
+          <t>TEG-84</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>OPPO r9s（玫瑰金）</t>
+          <t>pad AOSP ON GROUPER</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6911,12 +7865,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>梁会</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -6936,31 +7890,33 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TEG-87</t>
+          <t>TEG-83</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>华为荣耀8</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>OPPO</t>
-        </is>
-      </c>
+          <t>pad AOSP ON GROUPER</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>梁会</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -6980,31 +7936,37 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TEG-86</t>
+          <t>TEG-82</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Iphone 6 银色 IMEI:358367062785390</t>
+          <t>红米 2</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -7024,16 +7986,22 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TEG-85</t>
+          <t>TEG-81</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>魅族 魅蓝Note5</t>
+          <t>Iphone 5s 银白色 iemi：352042062918087</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7043,12 +8011,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>谢波</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -7068,31 +8036,37 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TEG-84</t>
+          <t>TEG-80</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>pad AOSP ON GROUPER</t>
+          <t>华为荣耀6</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -7112,27 +8086,37 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TEG-83</t>
+          <t>TEG-79</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>pad AOSP ON GROUPER</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>Iphone 5S 银灰 IMEI:358026051809674</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>苹果</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -7152,31 +8136,37 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TEG-82</t>
+          <t>TEG-78</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>红米 2</t>
+          <t>酷派 Y80D</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>酷派</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -7196,31 +8186,37 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TEG-81</t>
+          <t>TEG-77</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Iphone 5s 银白色 iemi：352042062918087</t>
+          <t>红米 NOTE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>余奇</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -7240,21 +8236,27 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TEG-80</t>
+          <t>TEG-76</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>华为荣耀6</t>
+          <t>魅族 魅蓝NOTE2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7264,7 +8266,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -7284,21 +8286,27 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TEG-79</t>
+          <t>TEG-75</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Iphone 5S 银灰 IMEI:358026051809674</t>
+          <t>魅族 魅蓝 NOTE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7308,7 +8316,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -7328,31 +8336,37 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TEG-78</t>
+          <t>TEG-74</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>酷派 Y80D</t>
+          <t>Iphone 6s 玫瑰金 IMEI:353344071660695</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>酷派</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -7372,31 +8386,37 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TEG-77</t>
+          <t>TEG-73</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>红米 NOTE</t>
+          <t>Iphone 6 Plus</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>余奇</t>
+          <t>沈晋元</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -7416,21 +8436,27 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TEG-76</t>
+          <t>TEG-72</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>魅族 魅蓝NOTE2</t>
+          <t>Iphone 7 IMEI：355343088077370</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7440,7 +8466,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -7460,31 +8486,37 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TEG-75</t>
+          <t>TEG-71</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>魅族 魅蓝 NOTE</t>
+          <t>Iphone 6s 金色(IMEI 359292064563034)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>冉贵榕</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -7504,16 +8536,22 @@
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TEG-74</t>
+          <t>TEG-70</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Iphone 6s 玫瑰金 IMEI:353344071660695</t>
+          <t>Iphone 6（港版银色A1688) IMEI:356960068069355-手机已备案</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7523,12 +8561,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -7548,16 +8586,22 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TEG-73</t>
+          <t>TEG-69</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Iphone 6 Plus</t>
+          <t>Iphone 6（银色）IMEI:356957063827902</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7567,12 +8611,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>沈晋元</t>
+          <t>冯星</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -7592,16 +8636,22 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TEG-72</t>
+          <t>TEG-68</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Iphone 7 IMEI：355343088077370</t>
+          <t>Iphone 5S（银白色）</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7611,12 +8661,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -7636,16 +8686,22 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TEG-71</t>
+          <t>TEG-67</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Iphone 6s 金色(IMEI 359292064563034)</t>
+          <t>Iphone 5（黑）</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7655,12 +8711,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>冉贵榕</t>
+          <t>黄绵旭</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -7680,16 +8736,22 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TEG-70</t>
+          <t>TEG-66</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Iphone 6（港版银色A1688) IMEI:356960068069355-手机已备案</t>
+          <t>Iphone 5（银白）屏碎 imei：013468002559411</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7699,12 +8761,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -7724,16 +8786,22 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TEG-69</t>
+          <t>TEG-65</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Iphone 6（银色）IMEI:356957063827902</t>
+          <t>IPhone 5（黑）MEID:99000232034623</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7743,12 +8811,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>冯星</t>
+          <t>黄绵旭</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -7768,16 +8836,22 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TEG-68</t>
+          <t>TEG-64</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Iphone 5S（银白色）</t>
+          <t>Iphone 5C</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7787,12 +8861,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -7812,16 +8886,22 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TEG-67</t>
+          <t>TEG-63</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Iphone 5（黑）</t>
+          <t>pad AOSP ON GROUPER</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7831,12 +8911,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>黄绵旭</t>
+          <t>梁会</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -7856,16 +8936,22 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TEG-66</t>
+          <t>TEG-62</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Iphone 5（银白）屏碎 imei：013468002559411</t>
+          <t>pad AOSP ON GROUPER</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7875,12 +8961,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>梁会</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -7900,31 +8986,37 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TEG-65</t>
+          <t>TEG-61</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>IPhone 5（黑）MEID:99000232034623</t>
+          <t>IPAD MD531CH/A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>乐视</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>黄绵旭</t>
+          <t>梁会</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -7944,31 +9036,37 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TEG-64</t>
+          <t>TEG-60</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Iphone 5C</t>
+          <t>乐视 乐Max2 Le X820</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>努比亚</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -7988,31 +9086,37 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TEG-63</t>
+          <t>TEG-59</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>pad AOSP ON GROUPER</t>
+          <t>努比亚 Z11 MAX</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -8032,31 +9136,37 @@
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TEG-62</t>
+          <t>TEG-58</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>pad AOSP ON GROUPER</t>
+          <t>OPPO A57</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>阮晶</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -8076,31 +9186,37 @@
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TEG-61</t>
+          <t>TEG-57</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>IPAD MD531CH/A</t>
+          <t>OPPO R9s plus</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>乐视</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>梁会</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -8120,31 +9236,37 @@
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TEG-60</t>
+          <t>TEG-56</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>乐视 乐Max2 Le X820</t>
+          <t>OPPO 1107</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>努比亚</t>
+          <t>ZUK</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -8164,31 +9286,37 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TEG-59</t>
+          <t>TEG-55</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>努比亚 Z11 MAX</t>
+          <t>ZUK Z1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>华硕</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -8208,31 +9336,37 @@
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TEG-58</t>
+          <t>TEG-54</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>OPPO A57</t>
+          <t>华硕 ASUS_Z00ADB</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>阮晶</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -8252,31 +9386,37 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TEG-57</t>
+          <t>TEG-53</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>OPPO R9s plus</t>
+          <t>VIVO X7 PLUS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>傅银珠</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -8296,31 +9436,37 @@
       <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TEG-56</t>
+          <t>TEG-52</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>OPPO 1107</t>
+          <t>VIVO X9</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ZUK</t>
+          <t>奇酷</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -8340,31 +9486,37 @@
       <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TEG-55</t>
+          <t>TEG-51</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ZUK Z1</t>
+          <t>奇酷8692-A00360 旗舰版</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>华硕</t>
+          <t>奇酷</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>袁航</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -8384,21 +9536,27 @@
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TEG-54</t>
+          <t>TEG-50</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>华硕 ASUS_Z00ADB</t>
+          <t>奇酷 V091(CP8681_M02)（手机青春版）</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>联想</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8408,7 +9566,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -8428,31 +9586,37 @@
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TEG-53</t>
+          <t>TEG-48</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>VIVO X7 PLUS</t>
+          <t>联想 lenovo A368t</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>联想</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -8472,31 +9636,37 @@
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TEG-52</t>
+          <t>TEG-47</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>VIVO X9</t>
+          <t>联想 S90-u(笋尖)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>奇酷</t>
+          <t>联想</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -8516,31 +9686,37 @@
       <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TEG-51</t>
+          <t>TEG-46</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>奇酷8692-A00360 旗舰版</t>
+          <t>联想 K50-t5</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>奇酷</t>
+          <t>联想</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>袁航</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -8560,31 +9736,37 @@
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TEG-50</t>
+          <t>TEG-45</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>奇酷 V091(CP8681_M02)（手机青春版）</t>
+          <t>联想 A788t</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>联想</t>
+          <t>摩托罗拉</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -8604,31 +9786,37 @@
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TEG-48</t>
+          <t>TEG-44</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>联想 lenovo A368t</t>
+          <t>摩托罗拉（蓝色）</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>联想</t>
+          <t>摩托罗拉</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -8648,31 +9836,37 @@
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TEG-47</t>
+          <t>TEG-43</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>联想 S90-u(笋尖)</t>
+          <t>摩托罗拉（绿色） MotoROLA XT1079</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>联想</t>
+          <t>索尼</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>孙辉</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -8692,31 +9886,37 @@
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TEG-46</t>
+          <t>TEG-42</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>联想 K50-t5</t>
+          <t>索尼 LT29i</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>联想</t>
+          <t>索尼</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -8736,21 +9936,27 @@
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TEG-45</t>
+          <t>TEG-41</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>联想 A788t</t>
+          <t>索尼 C6603</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>摩托罗拉</t>
+          <t>中兴</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8760,7 +9966,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -8780,31 +9986,37 @@
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TEG-44</t>
+          <t>TEG-40</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>摩托罗拉（蓝色）</t>
+          <t>中兴 ZTE U9180</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>摩托罗拉</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -8824,31 +10036,37 @@
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TEG-43</t>
+          <t>TEG-39</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>摩托罗拉（绿色） MotoROLA XT1079</t>
+          <t>三星S5（三星SM-G9009D）</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>索尼</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>孙辉</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -8868,31 +10086,37 @@
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TEG-42</t>
+          <t>TEG-38</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>索尼 LT29i</t>
+          <t>三星S7</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>索尼</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -8912,31 +10136,37 @@
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TEG-41</t>
+          <t>TEG-37</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>索尼 C6603</t>
+          <t>三星S6(三星SM-G9200)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>中兴</t>
+          <t>三星</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>余奇</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -8956,16 +10186,22 @@
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>TEG-40</t>
+          <t>TEG-36</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>中兴 ZTE U9180</t>
+          <t>三星NOTE 5</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8975,12 +10211,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>冉贵榕</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -9000,16 +10236,22 @@
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>TEG-39</t>
+          <t>TEG-35</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>三星S5（三星SM-G9009D）</t>
+          <t>三星note4（三星SM-N9108）</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9019,12 +10261,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>冉贵榕</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -9044,16 +10286,22 @@
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>TEG-38</t>
+          <t>TEG-34</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>三星S7</t>
+          <t>三星SCH-N719(note 2)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9063,12 +10311,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -9088,31 +10336,37 @@
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>TEG-37</t>
+          <t>TEG-33</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>三星S6(三星SM-G9200)</t>
+          <t>三星 GT-9300I</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>余奇</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -9132,31 +10386,37 @@
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TEG-36</t>
+          <t>TEG-32</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>三星NOTE 5</t>
+          <t>LG Nexus 4</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>冉贵榕</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -9176,31 +10436,37 @@
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>TEG-35</t>
+          <t>TEG-31</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>三星note4（三星SM-N9108）</t>
+          <t>LG Nexus 5</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>LG</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>冉贵榕</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -9220,21 +10486,27 @@
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TEG-34</t>
+          <t>TEG-30</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>三星SCH-N719(note 2)</t>
+          <t>LG-P8810</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>三星</t>
+          <t>酷派</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9244,7 +10516,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -9264,21 +10536,27 @@
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>TEG-33</t>
+          <t>TEG-29</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>三星 GT-9300I</t>
+          <t>酷派 S6 9190-t00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>酷派</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9288,7 +10566,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -9308,21 +10586,27 @@
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>TEG-32</t>
+          <t>TEG-28</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>LG Nexus 4</t>
+          <t>酷派 8720L</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>酷派</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9332,7 +10616,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -9352,31 +10636,37 @@
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>TEG-31</t>
+          <t>TEG-27</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LG Nexus 5</t>
+          <t>酷派 8297-T01</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LG</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -9396,21 +10686,27 @@
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TEG-30</t>
+          <t>TEG-25</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>LG-P8810</t>
+          <t>华为 C8815</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>酷派</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9420,7 +10716,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -9440,31 +10736,37 @@
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TEG-29</t>
+          <t>TEG-24</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>酷派 S6 9190-t00</t>
+          <t>华为（金色）MT7-TL10</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>酷派</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -9484,31 +10786,37 @@
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TEG-28</t>
+          <t>TEG-23</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>酷派 8720L</t>
+          <t>华为 6P</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>酷派</t>
+          <t>华为</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -9528,16 +10836,22 @@
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TEG-27</t>
+          <t>TEG-22</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>酷派 8297-T01</t>
+          <t>华为 P8 ALE-TL00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9547,12 +10861,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -9572,16 +10886,22 @@
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TEG-25</t>
+          <t>TEG-21</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>华为 C8815</t>
+          <t>华为 MT1-U06</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9596,7 +10916,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -9616,16 +10936,22 @@
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TEG-24</t>
+          <t>TEG-20</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>华为（金色）MT7-TL10</t>
+          <t>华为荣耀畅玩5X</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9640,7 +10966,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -9660,16 +10986,22 @@
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TEG-23</t>
+          <t>TEG-19</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>华为 6P</t>
+          <t>华为荣耀6 H60-L02</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9684,7 +11016,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -9704,16 +11036,22 @@
       <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>TEG-22</t>
+          <t>TEG-18</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>华为 P8 ALE-TL00</t>
+          <t>华为 H01-T00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9723,12 +11061,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -9748,16 +11086,22 @@
       <c r="P206" t="inlineStr"/>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TEG-21</t>
+          <t>TEG-17</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>华为 MT1-U06</t>
+          <t>华为荣耀 HONOR H30-L01</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9767,12 +11111,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -9792,16 +11136,22 @@
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TEG-20</t>
+          <t>TEG-15</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>华为荣耀畅玩5X</t>
+          <t>华为 U9508</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9811,12 +11161,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -9836,31 +11186,37 @@
       <c r="P208" t="inlineStr"/>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TEG-19</t>
+          <t>TEG-14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>华为荣耀6 H60-L02</t>
+          <t>华为 P6-C00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>HTC</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -9880,21 +11236,27 @@
       <c r="P209" t="inlineStr"/>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TEG-18</t>
+          <t>TEG-13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>华为 H01-T00</t>
+          <t>HTC D516D</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9904,7 +11266,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -9924,31 +11286,37 @@
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>TEG-17</t>
+          <t>TEG-11</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>华为荣耀 HONOR H30-L01</t>
+          <t>魅族 PRO 6</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>胡泽</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -9968,31 +11336,37 @@
       <c r="P211" t="inlineStr"/>
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>TEG-15</t>
+          <t>TEG-10</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>华为 U9508</t>
+          <t>魅族 魅三（MX3）</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>华为</t>
+          <t>魅族</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -10012,21 +11386,27 @@
       <c r="P212" t="inlineStr"/>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TEG-14</t>
+          <t>TEG-9</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>华为 P6-C00</t>
+          <t>魅族 MX4 Pro</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>HTC</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10036,7 +11416,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -10056,31 +11436,37 @@
       <c r="P213" t="inlineStr"/>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>TEG-13</t>
+          <t>TEG-8</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>HTC D516D</t>
+          <t>红米3S（Redmi 3s）</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -10100,31 +11486,37 @@
       <c r="P214" t="inlineStr"/>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TEG-11</t>
+          <t>TEG-7</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>魅族 PRO 6</t>
+          <t>红米 note3（Redmi Note 3）</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>胡泽</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -10144,31 +11536,37 @@
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>TEG-10</t>
+          <t>TEG-6</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>魅族 魅三（MX3）</t>
+          <t>红米note2</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>魅族</t>
+          <t>红米</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -10188,31 +11586,37 @@
       <c r="P216" t="inlineStr"/>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>TEG-9</t>
+          <t>TEG-5</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>魅族 MX4 Pro</t>
+          <t>红米 1SW</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>李凌涛</t>
+          <t>王维力</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -10232,31 +11636,37 @@
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>TEG-8</t>
+          <t>TEG-4</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>红米3S（Redmi 3s）</t>
+          <t>小米5</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>傅银珠</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -10276,31 +11686,37 @@
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>TEG-7</t>
+          <t>TEG-3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>红米 note3（Redmi Note 3）</t>
+          <t>小米2</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>贺玮玮</t>
+          <t>李凌涛</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -10320,21 +11736,27 @@
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>TEG-6</t>
+          <t>TEG-2</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>红米note2</t>
+          <t>小米3</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>红米</t>
+          <t>小米</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10344,7 +11766,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -10364,16 +11786,22 @@
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr"/>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TEG-5</t>
+          <t>TEG-1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>红米 1SW</t>
+          <t>小米4</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10383,12 +11811,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>王维力</t>
+          <t>贺玮玮</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>保管中</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -10408,182 +11836,12 @@
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr"/>
       <c r="R221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>TEG-4</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>小米5</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>小米</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>傅银珠</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>TEG-3</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>小米2</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>小米</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>李凌涛</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>TEG-2</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>小米3</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>小米</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>李凌涛</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>TEG-1</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>小米4</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>小米</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>贺玮玮</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>在库</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
